--- a/pred_ohlcv/54_21/2020-01-13 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ADA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>74918.15695448001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>74918.15695448001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>112269.64085448</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>115748.97705426</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-109113.94676408</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-101417.72156408</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-102118.70856408</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-102118.70856408</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-108818.12676408</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-118279.06216408</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-116409.15456342</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-141464.15096342</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-141464.15096342</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-144142.33296342</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-144142.33296342</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-145342.98486342</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-143986.48476342</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-143153.1847634201</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-143153.1847634201</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-144065.0487634201</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-168942.7895634201</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-168942.7895634201</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-402463.6556238999</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-408237.8998239</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-423274.9923239</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-426930.7714239001</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-563772.2303239001</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-562737.0062239001</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-562392.2303239001</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-562392.2303239001</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ADA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>74918.15695448001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>74918.15695448001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>112718.56105448</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>112269.64085448</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-109113.94676408</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-101417.72156408</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-102118.70856408</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-102118.70856408</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-108818.12676408</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-118279.06216408</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-116409.15456342</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-141464.15096342</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-141464.15096342</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-144142.33296342</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-144142.33296342</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-145342.98486342</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-143986.48476342</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-143153.1847634201</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-143153.1847634201</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-144065.0487634201</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-168942.7895634201</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-168942.7895634201</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-402463.6556238999</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-408237.8998239</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-423274.9923239</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-426930.7714239001</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-562737.0062239001</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-562392.2303239001</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-562392.2303239001</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
